--- a/mf-intelligence/data/processed/invesco/Invesco_India_PSU_Equity_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/invesco/Invesco_India_PSU_Equity_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,27 +498,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.35</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>9.41</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>9.119999999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>-0.0600000000000005</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.2300000000000004</v>
       </c>
     </row>
@@ -530,27 +540,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>9.02</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>8.27</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>0.75</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>0.3099999999999987</v>
       </c>
     </row>
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>7.07</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>6.69</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>6.33</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>0.3799999999999999</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.7400000000000002</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>6.64</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.2</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>7.06</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-0.5600000000000005</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.4199999999999999</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.81</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.94</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>6.26</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>-0.1300000000000008</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>-0.4500000000000002</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.27</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>5.96</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.18</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.6900000000000004</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-0.9100000000000001</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Engineering Services</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>4.88</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>4.45</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.39</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.4299999999999997</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>2.49</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>4.6</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4.51</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>4.43</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.1699999999999999</v>
       </c>
     </row>
@@ -789,27 +834,32 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>4.5</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4.58</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>4.02</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>-0.08000000000000007</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>0.4800000000000004</v>
       </c>
     </row>
@@ -826,27 +876,32 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Adding</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>4.3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.1</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4.65</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>0.2000000000000002</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>-0.3500000000000005</v>
       </c>
     </row>
@@ -863,27 +918,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Non - Ferrous Metals</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4.19</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>3.52</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.59</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>0.6700000000000004</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1.600000000000001</v>
       </c>
     </row>
@@ -900,27 +960,32 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.63</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>3.66</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>3.8</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>-0.03000000000000025</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>-0.1699999999999999</v>
       </c>
     </row>
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>3.46</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>3.67</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>3.85</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>-0.21</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>-0.3900000000000001</v>
       </c>
     </row>
@@ -974,27 +1044,32 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Oil</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>3.28</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>3.02</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>3.17</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>0.2599999999999998</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>0.1099999999999999</v>
       </c>
     </row>
@@ -1011,27 +1086,32 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>3.21</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>3.43</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>-0.2200000000000002</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>3.21</v>
       </c>
     </row>
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3.15</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>3.3</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.13</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-0.1499999999999999</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>0.02000000000000002</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2.93</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>2.95</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>2.91</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>-0.02000000000000002</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>0.02000000000000002</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>2.84</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>3.02</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>3.78</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>-0.1800000000000002</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>-0.9399999999999999</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2.72</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>3.27</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>3.08</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>-0.5499999999999998</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>-0.3599999999999999</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>2.27</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>2.37</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>2.51</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>-0.1000000000000001</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>-0.2399999999999998</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>2.18</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>2.24</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>2.07</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>-0.06000000000000005</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>0.1100000000000003</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Industrial Manufacturing</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Stable</t>
         </is>
-      </c>
-      <c r="E23" t="n">
-        <v>1.47</v>
       </c>
       <c r="F23" t="n">
         <v>1.47</v>
       </c>
       <c r="G23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H23" t="n">
         <v>1.59</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>-0.1200000000000001</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Leisure Services</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>1.08</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>1.22</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>0.97</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>-0.1399999999999999</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>0.1100000000000001</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Invesco India PSU Equity Fund</t>
+          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>Invesco India PSU Equity Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
         <v>3.79</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>-3.79</v>
       </c>
     </row>
